--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_0</t>
+          <t>model_14_6_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9910641058996893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8030986209010298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.5787138631890217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9911376986667113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9735435210410572</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05975436499478632</v>
       </c>
       <c r="H2" t="n">
-        <v>1.479707906084425</v>
+        <v>1.316680428682298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2873426809187466</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.0807193845013086</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1840310327100276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1257696773475286</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2444470596975679</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004376764457295</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2548536771040657</v>
       </c>
       <c r="P2" t="n">
-        <v>149.9525535028395</v>
+        <v>151.6350260730656</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6129612884442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_22</t>
+          <t>model_14_6_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9911279098733982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8030920872742404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.5830388685830157</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9912455397542894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9738261659709941</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05932770752880499</v>
       </c>
       <c r="H3" t="n">
-        <v>1.479707906084425</v>
+        <v>1.316724119074723</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2843927650864678</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.07973714908796839</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1820649570872181</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1276157948504104</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2435727971855745</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004345513531397</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2539421954269638</v>
       </c>
       <c r="P3" t="n">
-        <v>149.9525535028395</v>
+        <v>151.6493576775677</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6272928929463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_21</t>
+          <t>model_14_6_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9911945867008216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8030818953976223</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.5878249812604969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9913645592561853</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9741387360442015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05888183927680631</v>
       </c>
       <c r="H4" t="n">
-        <v>1.479707906084425</v>
+        <v>1.316792272200598</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2811283461375393</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.07865309872955817</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1798907224335488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1296651261146301</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2426558041275879</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004312855493475</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2529861640760615</v>
       </c>
       <c r="P4" t="n">
-        <v>149.9525535028395</v>
+        <v>151.6644451346638</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6423803500425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_20</t>
+          <t>model_14_6_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9912633527606556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8030669362131699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.5931158864646631</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9914954876397899</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9744838512473499</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05842200031805778</v>
       </c>
       <c r="H5" t="n">
-        <v>1.479707906084425</v>
+        <v>1.316892304335911</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2775196280881861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.07746058020182328</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1774901041450047</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1319386708967432</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2417064341676857</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004279174158046</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2519963774714995</v>
       </c>
       <c r="P5" t="n">
-        <v>149.9525535028395</v>
+        <v>151.6801254846266</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6580607000053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_19</t>
+          <t>model_14_6_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9913332748971357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8030459549497154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.598963324384898</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9916395651513629</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.974864853601614</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05795443066945333</v>
       </c>
       <c r="H6" t="n">
-        <v>1.479707906084425</v>
+        <v>1.317032606141242</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2735313209930962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.07614829712575952</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.17483985515197</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1344669966582772</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.240737264812603</v>
       </c>
       <c r="N6" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004244926580995</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2509859485705138</v>
       </c>
       <c r="P6" t="n">
-        <v>149.9525535028395</v>
+        <v>151.6961965107108</v>
       </c>
       <c r="Q6" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6741317260894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_18</t>
+          <t>model_14_6_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9914029459744487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8030171630439938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6054219680595156</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.991797831137294</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9752851238925989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05748853985465569</v>
       </c>
       <c r="H7" t="n">
-        <v>1.479707906084425</v>
+        <v>1.317225137747376</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.269126134526217</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.07470678295337818</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1719164587397976</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1372722080417525</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2397676789199405</v>
       </c>
       <c r="N7" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004210801971699</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2499750853990812</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7123393158373</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6902745312159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_17</t>
+          <t>model_14_6_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9914704228436645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.802978524361361</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6125466494492773</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9919714851995731</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9757481158588607</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05703732171950712</v>
       </c>
       <c r="H8" t="n">
-        <v>1.479707906084425</v>
+        <v>1.317483514796057</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2642666699667541</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.07312511150076455</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1686958907337593</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1403932341959623</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2388248766764198</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004177752076572</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2489921461121841</v>
       </c>
       <c r="P8" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7280989168102</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7060341321888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_16</t>
+          <t>model_14_6_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9915332198723047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8029273676293468</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6204050458130744</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9921616632082282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9762578977833316</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.0566173976998362</v>
       </c>
       <c r="H9" t="n">
-        <v>1.479707906084425</v>
+        <v>1.317825600098591</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.25890676732199</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.07139293706581738</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1651498521939037</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.14384829654686</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2379441062515233</v>
       </c>
       <c r="N9" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004146994348259</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2480738794668536</v>
       </c>
       <c r="P9" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7428779222975</v>
       </c>
       <c r="Q9" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7208131376761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_15</t>
+          <t>model_14_6_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9915879357353845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8028605225138803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.629061165789089</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.992369694706006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9768184782592537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05625151247147848</v>
       </c>
       <c r="H10" t="n">
-        <v>1.479707906084425</v>
+        <v>1.318272593693509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2530027688208992</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.06949814994156997</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1612504593812346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1476882945356472</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2371740130610402</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004120194741853</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.247271001814939</v>
       </c>
       <c r="P10" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7558446997545</v>
       </c>
       <c r="Q10" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7337799151331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_14</t>
+          <t>model_14_6_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9916301128573034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8027738840623164</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6385843804265209</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.992596705750395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9774339955601786</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05596947386299897</v>
       </c>
       <c r="H11" t="n">
-        <v>1.479707906084425</v>
+        <v>1.318851945418051</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2465073592031075</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.06743049380024155</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1569689265016745</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1519472299432553</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2365786842955193</v>
       </c>
       <c r="N11" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004099536559688</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2466503286713694</v>
       </c>
       <c r="P11" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7658976929251</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7438329083037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_13</t>
+          <t>model_14_6_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9916540716923248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8026625034271114</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6490523928453531</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9928437835504312</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9781089649361188</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.0558092610228906</v>
       </c>
       <c r="H12" t="n">
-        <v>1.479707906084425</v>
+        <v>1.319596748238526</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.239367540230931</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.06518006615252087</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1522738455162315</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1566735338276651</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2362398379251277</v>
       </c>
       <c r="N12" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004087801620086</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2462970569094815</v>
       </c>
       <c r="P12" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7716309104278</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7495661258064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_23</t>
+          <t>model_14_6_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.991652433592502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8025201220829249</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6605401439803225</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9931121765297881</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.978847896101519</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05582021500394805</v>
       </c>
       <c r="H13" t="n">
-        <v>1.479707906084425</v>
+        <v>1.320548852942708</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2315321976444492</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.06273549613809611</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1471338468912726</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1619171986647274</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2362630208135587</v>
       </c>
       <c r="N13" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004088603954693</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2463212267414682</v>
       </c>
       <c r="P13" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7712383982892</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7491736136678</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9916157227521279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8023391491249843</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6731263888832955</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9934027116170386</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9796551733044621</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05606570056256725</v>
       </c>
       <c r="H14" t="n">
-        <v>1.479707906084425</v>
+        <v>1.32175901994576</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2229476157246723</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.06008925194745822</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1415184338360653</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1677345652427852</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2367819684067333</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004106584774468</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2468622670080539</v>
       </c>
       <c r="P14" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7624621032105</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7403973185892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_10</t>
+          <t>model_14_6_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9915319037351751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8021101117817915</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.6868892800969062</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9937161036831262</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9805351078790984</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05662619871488245</v>
       </c>
       <c r="H15" t="n">
-        <v>1.479707906084425</v>
+        <v>1.32329059371431</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2135604897004273</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.05723482241151287</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1353976167485426</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1741850356735885</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2379625994035249</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004147638986853</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.248093159910622</v>
       </c>
       <c r="P15" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7425670520905</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.9304887182182</v>
+        <v>240.7205022674692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_9</t>
+          <t>model_14_6_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9913856411005956</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8018212896906274</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.7019034640560975</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.994052784887799</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9814916254870609</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05760425762579301</v>
       </c>
       <c r="H16" t="n">
-        <v>1.479707906084425</v>
+        <v>1.325221948367828</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.2033199061785038</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.05416827134398536</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1287440887612446</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1813353297927654</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2400088698898293</v>
       </c>
       <c r="N16" t="n">
-        <v>1.010150734101484</v>
+        <v>1.00421927782828</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2502265443678923</v>
       </c>
       <c r="P16" t="n">
-        <v>149.9525535028395</v>
+        <v>151.7083175937951</v>
       </c>
       <c r="Q16" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6862528091738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_8</t>
+          <t>model_14_6_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9911576085315721</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8014582322268219</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.7182428277389756</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9944126888353094</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.982528329966518</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.05912911246484613</v>
       </c>
       <c r="H17" t="n">
-        <v>1.479707906084425</v>
+        <v>1.327649715300022</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.1921754697612876</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.05089020348891164</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1215327816078756</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1892596984340031</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2431647845902982</v>
       </c>
       <c r="N17" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004330967249842</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2535168128908042</v>
       </c>
       <c r="P17" t="n">
-        <v>149.9525535028395</v>
+        <v>151.6560637583162</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.9304887182182</v>
+        <v>240.6339989736948</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_7</t>
+          <t>model_14_6_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9908233647095476</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8010030925505052</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.735962989458985</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9947953101282855</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.983647587845467</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06136420244177577</v>
       </c>
       <c r="H18" t="n">
-        <v>1.479707906084425</v>
+        <v>1.330693236411277</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.1800892453877906</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.04740522209360427</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1137472337406974</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.1980464593856949</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2477179897419155</v>
       </c>
       <c r="N18" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004494678509609</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2582638574121598</v>
       </c>
       <c r="P18" t="n">
-        <v>149.9525535028395</v>
+        <v>151.5818572719469</v>
       </c>
       <c r="Q18" t="n">
-        <v>238.9304887182182</v>
+        <v>240.5597924873255</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_6</t>
+          <t>model_14_6_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9903520579176324</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.8004337419731417</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.7551057618354173</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9951992235290622</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9848505420912943</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06451583312948106</v>
       </c>
       <c r="H19" t="n">
-        <v>1.479707906084425</v>
+        <v>1.334500486343726</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.1670327143172481</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.04372630847101489</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.1053794946887225</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2077708490654011</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2539996715145141</v>
       </c>
       <c r="N19" t="n">
-        <v>1.010150734101484</v>
+        <v>1.004725522652588</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2648129633826918</v>
       </c>
       <c r="P19" t="n">
-        <v>149.9525535028395</v>
+        <v>151.4816892208575</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.9304887182182</v>
+        <v>240.4596244362362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_5</t>
+          <t>model_14_6_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9897049315020482</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7997226564236029</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.7756852983471876</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9956220508491164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9861363144904159</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.06884317045023508</v>
       </c>
       <c r="H20" t="n">
-        <v>1.479707906084425</v>
+        <v>1.339255518687739</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.1529962230191484</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.03987512357653242</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.09643567329784043</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2185377632280818</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2623798209661617</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010150734101484</v>
+        <v>1.005042482529609</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.273549873145797</v>
       </c>
       <c r="P20" t="n">
-        <v>149.9525535028395</v>
+        <v>151.3518485067003</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.9304887182182</v>
+        <v>240.329783722079</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_4</t>
+          <t>model_14_6_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9888332239888794</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7988357587542034</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.7976752920053788</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9960600781965158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9875011910139905</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.07467228260463886</v>
       </c>
       <c r="H21" t="n">
-        <v>1.479707906084425</v>
+        <v>1.345186207486801</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.137997714454491</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.03588549418489662</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.08694160431969383</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2304477018383254</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2732622963466399</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010150734101484</v>
+        <v>1.005469441311569</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2848956380330517</v>
       </c>
       <c r="P21" t="n">
-        <v>149.9525535028395</v>
+        <v>151.1892926103372</v>
       </c>
       <c r="Q21" t="n">
-        <v>238.9304887182182</v>
+        <v>240.1672278257159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_3</t>
+          <t>model_14_6_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9876757421250517</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7977304801508309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.8209897238791199</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9965079717965828</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9889374619389396</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.08241236915776907</v>
       </c>
       <c r="H22" t="n">
-        <v>1.479707906084425</v>
+        <v>1.352577210596893</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.1220958587480355</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.03180600124510248</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.07695091651955352</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2436123306256501</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.2870755460811127</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010150734101484</v>
+        <v>1.006036371204056</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.2992969464060899</v>
       </c>
       <c r="P22" t="n">
-        <v>149.9525535028395</v>
+        <v>150.9920394843886</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.9304887182182</v>
+        <v>239.9699746997672</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_2</t>
+          <t>model_14_6_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.986155484916532</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7963535408205472</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.8454532671688233</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9969582279486846</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9904316130603171</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.09257833611128032</v>
       </c>
       <c r="H23" t="n">
-        <v>1.479707906084425</v>
+        <v>1.361784810238723</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.1054102394042661</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.02770498976977927</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.06655761458702265</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2581549095824961</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.3042668830340895</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010150734101484</v>
+        <v>1.006780986979658</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.3172201541641284</v>
       </c>
       <c r="P23" t="n">
-        <v>149.9525535028395</v>
+        <v>150.7594002319659</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.9304887182182</v>
+        <v>239.7373354473445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_1</t>
+          <t>model_14_6_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9841757523704739</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7946378305312115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.8707649070557874</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.9974005921552679</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9919621772333498</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.1058168167626015</v>
       </c>
       <c r="H24" t="n">
-        <v>1.479707906084425</v>
+        <v>1.37325777284363</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.08814616677508902</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.02367585950914479</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.05591102379051859</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2742046191037462</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.3252949688553475</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010150734101484</v>
+        <v>1.007750651900176</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.3391434491329359</v>
       </c>
       <c r="P24" t="n">
-        <v>149.9525535028395</v>
+        <v>150.4920916471642</v>
       </c>
       <c r="Q24" t="n">
-        <v>238.9304887182182</v>
+        <v>239.4700268625429</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_11</t>
+          <t>model_14_6_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9816146978093735</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7924984935276645</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.8964365105338647</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.997821211927222</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9934961562671643</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.1229426004052516</v>
       </c>
       <c r="H25" t="n">
-        <v>1.479707906084425</v>
+        <v>1.38756352923709</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.07063657715813118</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.01984478134734922</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.0452406792527402</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.2918902471863976</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.3506317161998492</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010150734101484</v>
+        <v>1.009005045970919</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.3655588342661904</v>
       </c>
       <c r="P25" t="n">
-        <v>149.9525535028395</v>
+        <v>150.1920753918058</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.9304887182182</v>
+        <v>239.1700106071844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_24</t>
+          <t>model_14_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9792755845428039</v>
+        <v>0.9783184922027239</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7787188743564334</v>
+        <v>0.7898268466691686</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9686190595360666</v>
+        <v>0.9217095694695918</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9294839905312882</v>
+        <v>0.998201904337665</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9389731912872351</v>
+        <v>0.9949844549681821</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1385842615894285</v>
+        <v>0.1449843424745485</v>
       </c>
       <c r="H26" t="n">
-        <v>1.479707906084425</v>
+        <v>1.405428844081655</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02925708528095616</v>
+        <v>0.053398819076223</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8368945496382653</v>
+        <v>0.01637736855019541</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4330757930205829</v>
+        <v>0.03488808670426248</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6353062862828454</v>
+        <v>0.3113685924053901</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3722690714918828</v>
+        <v>0.3807680954000066</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010150734101484</v>
+        <v>1.010619514023156</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3881173365685061</v>
+        <v>0.3969781815198036</v>
       </c>
       <c r="P26" t="n">
-        <v>149.9525535028395</v>
+        <v>149.8622590506526</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.9304887182182</v>
+        <v>238.8401942660312</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_6.xlsx
@@ -518,276 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_24</t>
+          <t>model_14_6_22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9910641058996893</v>
+        <v>0.9822593491893827</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8030986209010298</v>
+        <v>0.7932941963954446</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5787138631890217</v>
+        <v>0.9127498561139694</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9911376986667113</v>
+        <v>0.5307880445632776</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9735435210410572</v>
+        <v>0.8817687489408015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05975436499478632</v>
+        <v>0.118631813658783</v>
       </c>
       <c r="H2" t="n">
-        <v>1.316680428682298</v>
+        <v>1.38224266049637</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2873426809187466</v>
+        <v>0.2411245908450774</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0807193845013086</v>
+        <v>0.4874163678675557</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1840310327100276</v>
+        <v>0.3642704793563165</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1257696773475286</v>
+        <v>1.244710567747177</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2444470596975679</v>
+        <v>0.3444296933465276</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004376764457295</v>
+        <v>1.008689298356221</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2548536771040657</v>
+        <v>0.3590927784600457</v>
       </c>
       <c r="P2" t="n">
-        <v>151.6350260730656</v>
+        <v>150.2634611701212</v>
       </c>
       <c r="Q2" t="n">
-        <v>240.6129612884442</v>
+        <v>239.2413963854999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_23</t>
+          <t>model_14_6_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9911279098733982</v>
+        <v>0.9824583490937842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8030920872742404</v>
+        <v>0.793291826124455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5830388685830157</v>
+        <v>0.9136859856731661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9912455397542894</v>
+        <v>0.5392133014363457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9738261659709941</v>
+        <v>0.883608935160933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05932770752880499</v>
+        <v>0.117301100381741</v>
       </c>
       <c r="H3" t="n">
-        <v>1.316724119074723</v>
+        <v>1.382258510509391</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2843927650864678</v>
+        <v>0.2385375021952969</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07973714908796839</v>
+        <v>0.4786642291894188</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1820649570872181</v>
+        <v>0.3586008656923578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1276157948504104</v>
+        <v>1.249019448476858</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2435727971855745</v>
+        <v>0.3424924822266044</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004345513531397</v>
+        <v>1.008591829015289</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2539421954269638</v>
+        <v>0.3570730962521676</v>
       </c>
       <c r="P3" t="n">
-        <v>151.6493576775677</v>
+        <v>150.2860222848964</v>
       </c>
       <c r="Q3" t="n">
-        <v>240.6272928929463</v>
+        <v>239.263957500275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_22</t>
+          <t>model_14_6_23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9911945867008216</v>
+        <v>0.9820714745936313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8030818953976223</v>
+        <v>0.7932864116520384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5878249812604969</v>
+        <v>0.9118804210001646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9913645592561853</v>
+        <v>0.5231845991944271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9741387360442015</v>
+        <v>0.8800970166113381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05888183927680631</v>
+        <v>0.1198881319456559</v>
       </c>
       <c r="H4" t="n">
-        <v>1.316792272200598</v>
+        <v>1.382294717111373</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2811283461375393</v>
+        <v>0.2435273626543293</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07865309872955817</v>
+        <v>0.4953148105266204</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1798907224335488</v>
+        <v>0.3694210865904748</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1296651261146301</v>
+        <v>1.240845839564549</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2426558041275879</v>
+        <v>0.3462486562366068</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004312855493475</v>
+        <v>1.008781318566385</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2529861640760615</v>
+        <v>0.3609891783661279</v>
       </c>
       <c r="P4" t="n">
-        <v>151.6644451346638</v>
+        <v>150.2423924095729</v>
       </c>
       <c r="Q4" t="n">
-        <v>240.6423803500425</v>
+        <v>239.2203276249516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_21</t>
+          <t>model_14_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9912633527606556</v>
+        <v>0.9826675367964867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8030669362131699</v>
+        <v>0.7932757454297726</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5931158864646631</v>
+        <v>0.9146912388837555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9914954876397899</v>
+        <v>0.5485447688569587</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9744838512473499</v>
+        <v>0.8856328928475052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05842200031805778</v>
+        <v>0.1159022612505484</v>
       </c>
       <c r="H5" t="n">
-        <v>1.316892304335911</v>
+        <v>1.382366042188777</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2775196280881861</v>
+        <v>0.2357593833486885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07746058020182328</v>
+        <v>0.4689707209479327</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1774901041450047</v>
+        <v>0.3523650521483106</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1319386708967432</v>
+        <v>1.253811210859381</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2417064341676857</v>
+        <v>0.3404442116566947</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004279174158046</v>
+        <v>1.008489369732333</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2519963774714995</v>
+        <v>0.3549376265635922</v>
       </c>
       <c r="P5" t="n">
-        <v>151.6801254846266</v>
+        <v>150.3100160369365</v>
       </c>
       <c r="Q5" t="n">
-        <v>240.6580607000053</v>
+        <v>239.2879512523152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_6_20</t>
+          <t>model_14_6_24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9913332748971357</v>
+        <v>0.9818953402271753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8030459549497154</v>
+        <v>0.7932713463077787</v>
       </c>
       <c r="D6" t="n">
-        <v>0.598963324384898</v>
+        <v>0.9110763533499662</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9916395651513629</v>
+        <v>0.5163266959874735</v>
       </c>
       <c r="F6" t="n">
-        <v>0.974864853601614</v>
+        <v>0.87858028544975</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05795443066945333</v>
+        <v>0.1210659432651715</v>
       </c>
       <c r="H6" t="n">
-        <v>1.317032606141242</v>
+        <v>1.382395459137806</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2735313209930962</v>
+        <v>0.2457494848713324</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07614829712575952</v>
+        <v>0.5024387855950079</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17483985515197</v>
+        <v>0.3740941352331702</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1344669966582772</v>
+        <v>1.237373799881461</v>
       </c>
       <c r="M6" t="n">
-        <v>0.240737264812603</v>
+        <v>0.3479453164869035</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004244926580995</v>
+        <v>1.008867588460159</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2509859485705138</v>
+        <v>0.3627580689558506</v>
       </c>
       <c r="P6" t="n">
-        <v>151.6961965107108</v>
+        <v>150.2228397923471</v>
       </c>
       <c r="Q6" t="n">
-        <v>240.6741317260894</v>
+        <v>239.2007750077258</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9914029459744487</v>
+        <v>0.9828851562661842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8030171630439938</v>
+        <v>0.7932414612052359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6054219680595156</v>
+        <v>0.9157646165444473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.991797831137294</v>
+        <v>0.5588733864347664</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9752851238925989</v>
+        <v>0.8878555045837735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05748853985465569</v>
+        <v>0.1144470388546353</v>
       </c>
       <c r="H7" t="n">
-        <v>1.317225137747376</v>
+        <v>1.382595300956119</v>
       </c>
       <c r="I7" t="n">
-        <v>0.269126134526217</v>
+        <v>0.2327929956990058</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07470678295337818</v>
+        <v>0.4582413752726244</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1719164587397976</v>
+        <v>0.3455171854858151</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1372722080417525</v>
+        <v>1.259146142841316</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2397676789199405</v>
+        <v>0.3383002200038234</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004210801971699</v>
+        <v>1.008382780604318</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2499750853990812</v>
+        <v>0.3527023607473836</v>
       </c>
       <c r="P7" t="n">
-        <v>151.7123393158373</v>
+        <v>150.335286211496</v>
       </c>
       <c r="Q7" t="n">
-        <v>240.6902745312159</v>
+        <v>239.3132214268747</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9914704228436645</v>
+        <v>0.9831086481348619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.802978524361361</v>
+        <v>0.7931833135329751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6125466494492773</v>
+        <v>0.9169053249641583</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9919714851995731</v>
+        <v>0.5702943263337807</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9757481158588607</v>
+        <v>0.890292458651897</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05703732171950712</v>
+        <v>0.1129525476997024</v>
       </c>
       <c r="H8" t="n">
-        <v>1.317483514796057</v>
+        <v>1.382984134708273</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2642666699667541</v>
+        <v>0.2296405326917738</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07312511150076455</v>
+        <v>0.4463773275246724</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1686958907337593</v>
+        <v>0.338008930108223</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1403932341959623</v>
+        <v>1.265073096837077</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2388248766764198</v>
+        <v>0.3360841378281671</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004177752076572</v>
+        <v>1.008273315199251</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2489921461121841</v>
+        <v>0.3503919353655871</v>
       </c>
       <c r="P8" t="n">
-        <v>151.7280989168102</v>
+        <v>150.3615749606538</v>
       </c>
       <c r="Q8" t="n">
-        <v>240.7060341321888</v>
+        <v>239.3395101760325</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9915332198723047</v>
+        <v>0.9833342866531964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8029273676293468</v>
+        <v>0.7930942370033316</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6204050458130744</v>
+        <v>0.9181101636750855</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9921616632082282</v>
+        <v>0.5829078182794153</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9762578977833316</v>
+        <v>0.8929592165266909</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0566173976998362</v>
+        <v>0.1114437018886295</v>
       </c>
       <c r="H9" t="n">
-        <v>1.317825600098591</v>
+        <v>1.383579789872158</v>
       </c>
       <c r="I9" t="n">
-        <v>0.25890676732199</v>
+        <v>0.2263108391432326</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07139293706581738</v>
+        <v>0.4332744592813737</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1651498521939037</v>
+        <v>0.3297926492123031</v>
       </c>
       <c r="L9" t="n">
-        <v>0.14384829654686</v>
+        <v>1.271661546026996</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2379441062515233</v>
+        <v>0.3338318467262066</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004146994348259</v>
+        <v>1.008162798373945</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2480738794668536</v>
+        <v>0.3480437595685308</v>
       </c>
       <c r="P9" t="n">
-        <v>151.7428779222975</v>
+        <v>150.3884714627838</v>
       </c>
       <c r="Q9" t="n">
-        <v>240.7208131376761</v>
+        <v>239.3664066781625</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9915879357353845</v>
+        <v>0.9835569547142036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8028605225138803</v>
+        <v>0.7929654266977033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.629061165789089</v>
+        <v>0.9193743749602612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.992369694706006</v>
+        <v>0.5968184611726817</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9768184782592537</v>
+        <v>0.8958712778320687</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05625151247147848</v>
+        <v>0.1099547195393826</v>
       </c>
       <c r="H10" t="n">
-        <v>1.318272593693509</v>
+        <v>1.384441144979011</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2530027688208992</v>
+        <v>0.2228170634850756</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06949814994156997</v>
+        <v>0.4188241134298326</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1612504593812346</v>
+        <v>0.3208205884574541</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1476882945356472</v>
+        <v>1.278963368948898</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2371740130610402</v>
+        <v>0.3315942091463339</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004120194741853</v>
+        <v>1.008053736466513</v>
       </c>
       <c r="O10" t="n">
-        <v>0.247271001814939</v>
+        <v>0.3457108611243346</v>
       </c>
       <c r="P10" t="n">
-        <v>151.7558446997545</v>
+        <v>150.415373276976</v>
       </c>
       <c r="Q10" t="n">
-        <v>240.7337799151331</v>
+        <v>239.3933084923547</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9916301128573034</v>
+        <v>0.9837695929629523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8027738840623164</v>
+        <v>0.792786060626373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6385843804265209</v>
+        <v>0.920689363857332</v>
       </c>
       <c r="E11" t="n">
-        <v>0.992596705750395</v>
+        <v>0.6121306001372313</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9774339955601786</v>
+        <v>0.8990423784400814</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05596947386299897</v>
+        <v>0.1085328065908906</v>
       </c>
       <c r="H11" t="n">
-        <v>1.318851945418051</v>
+        <v>1.385640566723902</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2465073592031075</v>
+        <v>0.2191829587644437</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06743049380024155</v>
+        <v>0.4029178964805277</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1569689265016745</v>
+        <v>0.3110504276224857</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1519472299432553</v>
+        <v>1.287043880706522</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2365786842955193</v>
+        <v>0.3294431765735793</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004099536559688</v>
+        <v>1.007949587120187</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2466503286713694</v>
+        <v>0.3434682546417065</v>
       </c>
       <c r="P11" t="n">
-        <v>151.7658976929251</v>
+        <v>150.4414055736233</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.7438329083037</v>
+        <v>239.419340789002</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9916540716923248</v>
+        <v>0.983962822992821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8026625034271114</v>
+        <v>0.7925427303029664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6490523928453531</v>
+        <v>0.9220448068654177</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9928437835504312</v>
+        <v>0.6289488223975133</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9781089649361188</v>
+        <v>0.9024855198025923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0558092610228906</v>
+        <v>0.1072406764914161</v>
       </c>
       <c r="H12" t="n">
-        <v>1.319596748238526</v>
+        <v>1.387267717716955</v>
       </c>
       <c r="I12" t="n">
-        <v>0.239367540230931</v>
+        <v>0.2154370550193979</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06518006615252087</v>
+        <v>0.3854471634501512</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1522738455162315</v>
+        <v>0.3004421092347745</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1566735338276651</v>
+        <v>1.295958714173997</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2362398379251277</v>
+        <v>0.3274762227878782</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004087801620086</v>
+        <v>1.007854943840251</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2462970569094815</v>
+        <v>0.3414175635611925</v>
       </c>
       <c r="P12" t="n">
-        <v>151.7716309104278</v>
+        <v>150.4653593148676</v>
       </c>
       <c r="Q12" t="n">
-        <v>240.7495661258064</v>
+        <v>239.4432945302463</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.991652433592502</v>
+        <v>0.9841242013077274</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8025201220829249</v>
+        <v>0.7922188267612418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6605401439803225</v>
+        <v>0.9234258320602821</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9931121765297881</v>
+        <v>0.6473678249564211</v>
       </c>
       <c r="F13" t="n">
-        <v>0.978847896101519</v>
+        <v>0.9062099961386181</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05582021500394805</v>
+        <v>0.1061615389565583</v>
       </c>
       <c r="H13" t="n">
-        <v>1.320548852942708</v>
+        <v>1.389433662191906</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2315321976444492</v>
+        <v>0.2116204523156431</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06273549613809611</v>
+        <v>0.3663135432962275</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1471338468912726</v>
+        <v>0.2889669978059353</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1619171986647274</v>
+        <v>1.305769722904727</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2362630208135587</v>
+        <v>0.325824398958332</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004088603954693</v>
+        <v>1.007775901400297</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2463212267414682</v>
+        <v>0.3396954181714758</v>
       </c>
       <c r="P13" t="n">
-        <v>151.7712383982892</v>
+        <v>150.4855867849736</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.7491736136678</v>
+        <v>239.4635220003522</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9916157227521279</v>
+        <v>0.9842373453389349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8023391491249843</v>
+        <v>0.791794123791413</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6731263888832955</v>
+        <v>0.9248125874581923</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9934027116170386</v>
+        <v>0.6674705141370052</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9796551733044621</v>
+        <v>0.9102208804677405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05606570056256725</v>
+        <v>0.1054049442988929</v>
       </c>
       <c r="H14" t="n">
-        <v>1.32175901994576</v>
+        <v>1.392273652906728</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2229476157246723</v>
+        <v>0.2077880136166298</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06008925194745822</v>
+        <v>0.3454309131090857</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1415184338360653</v>
+        <v>0.2766094633628578</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1677345652427852</v>
+        <v>1.316518847230639</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2367819684067333</v>
+        <v>0.3246612762540258</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004106584774468</v>
+        <v>1.007720483915624</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2468622670080539</v>
+        <v>0.3384827789256513</v>
       </c>
       <c r="P14" t="n">
-        <v>151.7624621032105</v>
+        <v>150.4998914682369</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.7403973185892</v>
+        <v>239.4778266836155</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9915319037351751</v>
+        <v>0.9842809676599339</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8021101117817915</v>
+        <v>0.7912436292758549</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6868892800969062</v>
+        <v>0.9261808131746067</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9937161036831262</v>
+        <v>0.6893116530439185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9805351078790984</v>
+        <v>0.9145165244861765</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05662619871488245</v>
+        <v>0.105113241637511</v>
       </c>
       <c r="H15" t="n">
-        <v>1.32329059371431</v>
+        <v>1.39595481226706</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2135604897004273</v>
+        <v>0.2040067835651919</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05723482241151287</v>
+        <v>0.3227423850936607</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1353976167485426</v>
+        <v>0.2633745843294263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1741850356735885</v>
+        <v>1.328237111321377</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2379625994035249</v>
+        <v>0.3242117234732745</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004147638986853</v>
+        <v>1.007699117880849</v>
       </c>
       <c r="O15" t="n">
-        <v>0.248093159910622</v>
+        <v>0.3380140877523209</v>
       </c>
       <c r="P15" t="n">
-        <v>151.7425670520905</v>
+        <v>150.5054340363865</v>
       </c>
       <c r="Q15" t="n">
-        <v>240.7205022674692</v>
+        <v>239.4833692517651</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9913856411005956</v>
+        <v>0.9842275576401963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8018212896906274</v>
+        <v>0.7905368685674599</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7019034640560975</v>
+        <v>0.9274990019503895</v>
       </c>
       <c r="E16" t="n">
-        <v>0.994052784887799</v>
+        <v>0.7129169882383226</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9814916254870609</v>
+        <v>0.9190871378622766</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05760425762579301</v>
+        <v>0.1054703946854261</v>
       </c>
       <c r="H16" t="n">
-        <v>1.325221948367828</v>
+        <v>1.400680924378431</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2033199061785038</v>
+        <v>0.2003638356563335</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05416827134398536</v>
+        <v>0.2982212137777173</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1287440887612446</v>
+        <v>0.2492925247170254</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1813353297927654</v>
+        <v>1.340936103265724</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2400088698898293</v>
+        <v>0.3247620585681555</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00421927782828</v>
+        <v>1.007725277890516</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2502265443678923</v>
+        <v>0.3385878517515417</v>
       </c>
       <c r="P16" t="n">
-        <v>151.7083175937951</v>
+        <v>150.4986499690848</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6862528091738</v>
+        <v>239.4765851844635</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9911576085315721</v>
+        <v>0.9840417870959109</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8014582322268219</v>
+        <v>0.7896363529210148</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7182428277389756</v>
+        <v>0.9287286724724306</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9944126888353094</v>
+        <v>0.7382573850440691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.982528329966518</v>
+        <v>0.9239105505151042</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05912911246484613</v>
+        <v>0.1067126431704575</v>
       </c>
       <c r="H17" t="n">
-        <v>1.327649715300022</v>
+        <v>1.406702676652703</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1921754697612876</v>
+        <v>0.1969655168880721</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05089020348891164</v>
+        <v>0.2718976642000355</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1215327816078756</v>
+        <v>0.2344315905440538</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1892596984340031</v>
+        <v>1.354594867237153</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2431647845902982</v>
+        <v>0.3266690116470455</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004330967249842</v>
+        <v>1.00781626754486</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2535168128908042</v>
+        <v>0.3405759877709371</v>
       </c>
       <c r="P17" t="n">
-        <v>151.6560637583162</v>
+        <v>150.4752312700001</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.6339989736948</v>
+        <v>239.4531664853788</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9908233647095476</v>
+        <v>0.9836781174095449</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8010030925505052</v>
+        <v>0.7884962542602941</v>
       </c>
       <c r="D18" t="n">
-        <v>0.735962989458985</v>
+        <v>0.9298195492851644</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9947953101282855</v>
+        <v>0.7652344053475024</v>
       </c>
       <c r="F18" t="n">
-        <v>0.983647587845467</v>
+        <v>0.9289476195354753</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06136420244177577</v>
+        <v>0.1091445040377323</v>
       </c>
       <c r="H18" t="n">
-        <v>1.330693236411277</v>
+        <v>1.414326521646613</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1800892453877906</v>
+        <v>0.1939507685631133</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04740522209360427</v>
+        <v>0.2438739936608862</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1137472337406974</v>
+        <v>0.2189123811119997</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1980464593856949</v>
+        <v>1.369179188492553</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2477179897419155</v>
+        <v>0.3303702529552748</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004494678509609</v>
+        <v>1.007994391472876</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2582638574121598</v>
+        <v>0.3444347985842835</v>
       </c>
       <c r="P18" t="n">
-        <v>151.5818572719469</v>
+        <v>150.4301650992676</v>
       </c>
       <c r="Q18" t="n">
-        <v>240.5597924873255</v>
+        <v>239.4081003146463</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9903520579176324</v>
+        <v>0.9830786307271713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8004337419731417</v>
+        <v>0.7870602681349725</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7551057618354173</v>
+        <v>0.9307091048669969</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9951992235290622</v>
+        <v>0.7936576812077898</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9848505420912943</v>
+        <v>0.9341382094256145</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06451583312948106</v>
+        <v>0.1131532742431465</v>
       </c>
       <c r="H19" t="n">
-        <v>1.334500486343726</v>
+        <v>1.423928967478747</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1670327143172481</v>
+        <v>0.1914923918069272</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04372630847101489</v>
+        <v>0.2143479559668462</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1053794946887225</v>
+        <v>0.2029201738868867</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2077708490654011</v>
+        <v>1.384622852293713</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2539996715145141</v>
+        <v>0.3363826307096526</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004725522652588</v>
+        <v>1.008288017603018</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2648129633826918</v>
+        <v>0.3507031357070029</v>
       </c>
       <c r="P19" t="n">
-        <v>151.4816892208575</v>
+        <v>150.3580239402608</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.4596244362362</v>
+        <v>239.3359591556394</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9897049315020482</v>
+        <v>0.9821693226881884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7997226564236029</v>
+        <v>0.7852592411962762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7756852983471876</v>
+        <v>0.9313177091493519</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9956220508491164</v>
+        <v>0.8232119056801189</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9861363144904159</v>
+        <v>0.9393934519731034</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06884317045023508</v>
+        <v>0.119233821286804</v>
       </c>
       <c r="H20" t="n">
-        <v>1.339255518687739</v>
+        <v>1.435972442910775</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1529962230191484</v>
+        <v>0.1898104523620927</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03987512357653242</v>
+        <v>0.1836470912925066</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09643567329784043</v>
+        <v>0.1867287718272997</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2185377632280818</v>
+        <v>1.400811943966274</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2623798209661617</v>
+        <v>0.3453025069222695</v>
       </c>
       <c r="N20" t="n">
-        <v>1.005042482529609</v>
+        <v>1.008733392969051</v>
       </c>
       <c r="O20" t="n">
-        <v>0.273549873145797</v>
+        <v>0.3600027495166802</v>
       </c>
       <c r="P20" t="n">
-        <v>151.3518485067003</v>
+        <v>150.2533376579374</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.329783722079</v>
+        <v>239.231272873316</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9888332239888794</v>
+        <v>0.9808563343594631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7988357587542034</v>
+        <v>0.7830079699581349</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7976752920053788</v>
+        <v>0.931541437310579</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9960600781965158</v>
+        <v>0.8534277864439948</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9875011910139905</v>
+        <v>0.9445876239371092</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07467228260463886</v>
+        <v>0.1280137802867458</v>
       </c>
       <c r="H21" t="n">
-        <v>1.345186207486801</v>
+        <v>1.451026704046377</v>
       </c>
       <c r="I21" t="n">
-        <v>0.137997714454491</v>
+        <v>0.1891921569767362</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03588549418489662</v>
+        <v>0.1522588994887841</v>
       </c>
       <c r="K21" t="n">
-        <v>0.08694160431969383</v>
+        <v>0.1707255282327602</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2304477018383254</v>
+        <v>1.417629697669321</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2732622963466399</v>
+        <v>0.3577901344178536</v>
       </c>
       <c r="N21" t="n">
-        <v>1.005469441311569</v>
+        <v>1.009376489293324</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2848956380330517</v>
+        <v>0.3730220011677038</v>
       </c>
       <c r="P21" t="n">
-        <v>151.1892926103372</v>
+        <v>150.1112347247341</v>
       </c>
       <c r="Q21" t="n">
-        <v>240.1672278257159</v>
+        <v>239.0891699401128</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9876757421250517</v>
+        <v>0.9790200115668055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7977304801508309</v>
+        <v>0.7802012538345994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8209897238791199</v>
+        <v>0.9312419483786957</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9965079717965828</v>
+        <v>0.8836303521694528</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9889374619389396</v>
+        <v>0.9495448931144709</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08241236915776907</v>
+        <v>0.1402932792567358</v>
       </c>
       <c r="H22" t="n">
-        <v>1.352577210596893</v>
+        <v>1.469795227688199</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1220958587480355</v>
+        <v>0.1900198249088065</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03180600124510248</v>
+        <v>0.120884539318268</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07695091651955352</v>
+        <v>0.1554521821135373</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2436123306256501</v>
+        <v>1.434957066172496</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2870755460811127</v>
+        <v>0.3745574445351951</v>
       </c>
       <c r="N22" t="n">
-        <v>1.006036371204056</v>
+        <v>1.010275912701973</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2992969464060899</v>
+        <v>0.3905031303898575</v>
       </c>
       <c r="P22" t="n">
-        <v>150.9920394843886</v>
+        <v>149.9280403913631</v>
       </c>
       <c r="Q22" t="n">
-        <v>239.9699746997672</v>
+        <v>238.9059756067418</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.986155484916532</v>
+        <v>0.976508359401829</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7963535408205472</v>
+        <v>0.7767084120941086</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8454532671688233</v>
+        <v>0.9302335312040992</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9969582279486846</v>
+        <v>0.9128896724427655</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9904316130603171</v>
+        <v>0.9540252008778646</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09257833611128032</v>
+        <v>0.1570887088490286</v>
       </c>
       <c r="H23" t="n">
-        <v>1.361784810238723</v>
+        <v>1.493151876489919</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1054102394042661</v>
+        <v>0.1928066876897246</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02770498976977927</v>
+        <v>0.09049002049016681</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06655761458702265</v>
+        <v>0.1416483540899457</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2581549095824961</v>
+        <v>1.452730067161386</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3042668830340895</v>
+        <v>0.3963441797844754</v>
       </c>
       <c r="N23" t="n">
-        <v>1.006780986979658</v>
+        <v>1.011506109680737</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3172201541641284</v>
+        <v>0.413217372063459</v>
       </c>
       <c r="P23" t="n">
-        <v>150.7594002319659</v>
+        <v>149.7018892173679</v>
       </c>
       <c r="Q23" t="n">
-        <v>239.7373354473445</v>
+        <v>238.6798244327466</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9841757523704739</v>
+        <v>0.9731277269585886</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7946378305312115</v>
+        <v>0.7723662319167407</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8707649070557874</v>
+        <v>0.9282597184165802</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9974005921552679</v>
+        <v>0.939944262423133</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9919621772333498</v>
+        <v>0.9577008612064842</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1058168167626015</v>
+        <v>0.179695013563358</v>
       </c>
       <c r="H24" t="n">
-        <v>1.37325777284363</v>
+        <v>1.522188055329879</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08814616677508902</v>
+        <v>0.1982615188177624</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02367585950914479</v>
+        <v>0.06238577073782858</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05591102379051859</v>
+        <v>0.1303236447777955</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2742046191037462</v>
+        <v>1.471010816455802</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3252949688553475</v>
+        <v>0.4239044863685191</v>
       </c>
       <c r="N24" t="n">
-        <v>1.007750651900176</v>
+        <v>1.013161929652936</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3391434491329359</v>
+        <v>0.441950977956485</v>
       </c>
       <c r="P24" t="n">
-        <v>150.4920916471642</v>
+        <v>149.4329884685024</v>
       </c>
       <c r="Q24" t="n">
-        <v>239.4700268625429</v>
+        <v>238.410923683881</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9816146978093735</v>
+        <v>0.9686299082042682</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7924984935276645</v>
+        <v>0.7669685611391873</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8964365105338647</v>
+        <v>0.9249573205209278</v>
       </c>
       <c r="E25" t="n">
-        <v>0.997821211927222</v>
+        <v>0.963097554409012</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9934961562671643</v>
+        <v>0.9601229773480894</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1229426004052516</v>
+        <v>0.2097719482840495</v>
       </c>
       <c r="H25" t="n">
-        <v>1.38756352923709</v>
+        <v>1.558282304673367</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07063657715813118</v>
+        <v>0.2073880291698482</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01984478134734922</v>
+        <v>0.03833418093247024</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0452406792527402</v>
+        <v>0.1228611050511592</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2918902471863976</v>
+        <v>1.490153191320825</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3506317161998492</v>
+        <v>0.4580086770837967</v>
       </c>
       <c r="N25" t="n">
-        <v>1.009005045970919</v>
+        <v>1.015364942920358</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3655588342661904</v>
+        <v>0.4775070546759191</v>
       </c>
       <c r="P25" t="n">
-        <v>150.1920753918058</v>
+        <v>149.1234685977984</v>
       </c>
       <c r="Q25" t="n">
-        <v>239.1700106071844</v>
+        <v>238.1014038131771</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9783184922027239</v>
+        <v>0.9626955314807407</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7898268466691686</v>
+        <v>0.7602519754871836</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9217095694695918</v>
+        <v>0.9198008068238909</v>
       </c>
       <c r="E26" t="n">
-        <v>0.998201904337665</v>
+        <v>0.9800683806318912</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9949844549681821</v>
+        <v>0.9606712913669502</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1449843424745485</v>
+        <v>0.2494551527595701</v>
       </c>
       <c r="H26" t="n">
-        <v>1.405428844081655</v>
+        <v>1.603196143855349</v>
       </c>
       <c r="I26" t="n">
-        <v>0.053398819076223</v>
+        <v>0.2216385759312288</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01637736855019541</v>
+        <v>0.02070492323470304</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03488808670426248</v>
+        <v>0.1211717495829659</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3113685924053901</v>
+        <v>1.511029248424081</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3807680954000066</v>
+        <v>0.4994548555771283</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010619514023156</v>
+        <v>1.018271576417596</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3969781815198036</v>
+        <v>0.520717682793129</v>
       </c>
       <c r="P26" t="n">
-        <v>149.8622590506526</v>
+        <v>148.7769522568118</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.8401942660312</v>
+        <v>237.7548874721904</v>
       </c>
     </row>
   </sheetData>
